--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ptn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H2">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I2">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J2">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N2">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q2">
-        <v>6.217517283899332</v>
+        <v>11.46679610014278</v>
       </c>
       <c r="R2">
-        <v>55.95765555509399</v>
+        <v>103.201164901285</v>
       </c>
       <c r="S2">
-        <v>0.0007955742101573525</v>
+        <v>0.001204090744179702</v>
       </c>
       <c r="T2">
-        <v>0.0007955742101573524</v>
+        <v>0.001204090744179701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H3">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I3">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J3">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>142.755867</v>
       </c>
       <c r="O3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q3">
-        <v>69.43612061177699</v>
+        <v>110.769812960587</v>
       </c>
       <c r="R3">
-        <v>624.9250855059928</v>
+        <v>996.928316645283</v>
       </c>
       <c r="S3">
-        <v>0.00888483043789148</v>
+        <v>0.01163157566904838</v>
       </c>
       <c r="T3">
-        <v>0.008884830437891476</v>
+        <v>0.01163157566904838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H4">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I4">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J4">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N4">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q4">
-        <v>8.105996595738997</v>
+        <v>32.12833325548245</v>
       </c>
       <c r="R4">
-        <v>72.95396936165098</v>
+        <v>289.154999299342</v>
       </c>
       <c r="S4">
-        <v>0.001037218160356892</v>
+        <v>0.003373691165430738</v>
       </c>
       <c r="T4">
-        <v>0.001037218160356891</v>
+        <v>0.003373691165430737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H5">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I5">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J5">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N5">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q5">
-        <v>11.27222312200533</v>
+        <v>28.37133546176845</v>
       </c>
       <c r="R5">
-        <v>101.450008098048</v>
+        <v>255.342019155916</v>
       </c>
       <c r="S5">
-        <v>0.001442358677511002</v>
+        <v>0.002979181118351566</v>
       </c>
       <c r="T5">
-        <v>0.001442358677511002</v>
+        <v>0.002979181118351565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H6">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I6">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J6">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N6">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q6">
-        <v>11.1952205346</v>
+        <v>19.96513210228411</v>
       </c>
       <c r="R6">
-        <v>100.7569848114</v>
+        <v>179.686188920557</v>
       </c>
       <c r="S6">
-        <v>0.001432505665471339</v>
+        <v>0.002096473204959666</v>
       </c>
       <c r="T6">
-        <v>0.001432505665471339</v>
+        <v>0.002096473204959665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>309.115586</v>
       </c>
       <c r="I7">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J7">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N7">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q7">
-        <v>439.0398205669551</v>
+        <v>507.5665900958322</v>
       </c>
       <c r="R7">
-        <v>3951.358385102596</v>
+        <v>4568.09931086249</v>
       </c>
       <c r="S7">
-        <v>0.05617817249655054</v>
+        <v>0.0532979070920808</v>
       </c>
       <c r="T7">
-        <v>0.05617817249655053</v>
+        <v>0.05329790709208079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>309.115586</v>
       </c>
       <c r="I8">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J8">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>142.755867</v>
       </c>
       <c r="O8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q8">
         <v>4903.118164738117</v>
@@ -948,10 +948,10 @@
         <v>44128.06348264306</v>
       </c>
       <c r="S8">
-        <v>0.6273877792541177</v>
+        <v>0.5148603976403682</v>
       </c>
       <c r="T8">
-        <v>0.6273877792541176</v>
+        <v>0.5148603976403681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>309.115586</v>
       </c>
       <c r="I9">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J9">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N9">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q9">
-        <v>572.3917004823593</v>
+        <v>1422.129460882688</v>
       </c>
       <c r="R9">
-        <v>5151.525304341234</v>
+        <v>12799.16514794419</v>
       </c>
       <c r="S9">
-        <v>0.07324146507660113</v>
+        <v>0.1493331621073119</v>
       </c>
       <c r="T9">
-        <v>0.07324146507660112</v>
+        <v>0.1493331621073119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>309.115586</v>
       </c>
       <c r="I10">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J10">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N10">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q10">
-        <v>795.9696114864925</v>
+        <v>1255.829603232891</v>
       </c>
       <c r="R10">
-        <v>7163.726503378432</v>
+        <v>11302.46642909602</v>
       </c>
       <c r="S10">
-        <v>0.1018498004995452</v>
+        <v>0.1318705581152493</v>
       </c>
       <c r="T10">
-        <v>0.1018498004995452</v>
+        <v>0.1318705581152493</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>309.115586</v>
       </c>
       <c r="I11">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J11">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N11">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q11">
-        <v>790.5321996364</v>
+        <v>883.7371776274108</v>
       </c>
       <c r="R11">
-        <v>7114.7897967276</v>
+        <v>7953.634598646698</v>
       </c>
       <c r="S11">
-        <v>0.1011540461589598</v>
+        <v>0.0927983498246218</v>
       </c>
       <c r="T11">
-        <v>0.1011540461589598</v>
+        <v>0.09279834982462178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H12">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I12">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J12">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N12">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q12">
-        <v>12.16573819482711</v>
+        <v>19.58459335202444</v>
       </c>
       <c r="R12">
-        <v>109.491643753444</v>
+        <v>176.26134016822</v>
       </c>
       <c r="S12">
-        <v>0.001556690092425551</v>
+        <v>0.002056514075749749</v>
       </c>
       <c r="T12">
-        <v>0.001556690092425551</v>
+        <v>0.002056514075749748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H13">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I13">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J13">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>142.755867</v>
       </c>
       <c r="O13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q13">
-        <v>135.864787511702</v>
+        <v>189.188132724004</v>
       </c>
       <c r="R13">
-        <v>1222.783087605318</v>
+        <v>1702.693194516036</v>
       </c>
       <c r="S13">
-        <v>0.01738483643507133</v>
+        <v>0.01986602687727025</v>
       </c>
       <c r="T13">
-        <v>0.01738483643507133</v>
+        <v>0.01986602687727025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H14">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I14">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J14">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N14">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q14">
-        <v>15.86090201104733</v>
+        <v>54.87324762660712</v>
       </c>
       <c r="R14">
-        <v>142.748118099426</v>
+        <v>493.859228639464</v>
       </c>
       <c r="S14">
-        <v>0.002029511783183722</v>
+        <v>0.005762060212220546</v>
       </c>
       <c r="T14">
-        <v>0.002029511783183721</v>
+        <v>0.005762060212220544</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H15">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I15">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J15">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N15">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q15">
-        <v>22.05621779791644</v>
+        <v>48.45652290491911</v>
       </c>
       <c r="R15">
-        <v>198.505960181248</v>
+        <v>436.108706144272</v>
       </c>
       <c r="S15">
-        <v>0.002822245158702807</v>
+        <v>0.005088260941887537</v>
       </c>
       <c r="T15">
-        <v>0.002822245158702806</v>
+        <v>0.005088260941887535</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.975769333333333</v>
+      </c>
+      <c r="H16">
+        <v>11.927308</v>
+      </c>
+      <c r="I16">
+        <v>0.03635351138648862</v>
+      </c>
+      <c r="J16">
+        <v>0.03635351138648861</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.576764333333333</v>
+      </c>
+      <c r="N16">
+        <v>25.730293</v>
+      </c>
+      <c r="O16">
+        <v>0.09849527990001386</v>
+      </c>
+      <c r="P16">
+        <v>0.09849527990001385</v>
+      </c>
+      <c r="Q16">
+        <v>34.09923661569378</v>
+      </c>
+      <c r="R16">
+        <v>306.893129541244</v>
+      </c>
+      <c r="S16">
+        <v>0.003580649279360537</v>
+      </c>
+      <c r="T16">
+        <v>0.003580649279360536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.06598</v>
+      </c>
+      <c r="I17">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J17">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.925988333333333</v>
+      </c>
+      <c r="N17">
+        <v>14.777965</v>
+      </c>
+      <c r="O17">
+        <v>0.05656988822582037</v>
+      </c>
+      <c r="P17">
+        <v>0.05656988822582035</v>
+      </c>
+      <c r="Q17">
+        <v>0.1083389034111111</v>
+      </c>
+      <c r="R17">
+        <v>0.9750501306999998</v>
+      </c>
+      <c r="S17">
+        <v>1.137631381012115E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.137631381012114E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.06598</v>
+      </c>
+      <c r="I18">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J18">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>47.585289</v>
+      </c>
+      <c r="N18">
+        <v>142.755867</v>
+      </c>
+      <c r="O18">
+        <v>0.5464678959362861</v>
+      </c>
+      <c r="P18">
+        <v>0.5464678959362861</v>
+      </c>
+      <c r="Q18">
+        <v>1.04655912274</v>
+      </c>
+      <c r="R18">
+        <v>9.419032104659999</v>
+      </c>
+      <c r="S18">
+        <v>0.0001098957495993473</v>
+      </c>
+      <c r="T18">
+        <v>0.0001098957495993472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.855184666666666</v>
-      </c>
-      <c r="H16">
-        <v>8.565553999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="J16">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.6722</v>
-      </c>
-      <c r="N16">
-        <v>23.0166</v>
-      </c>
-      <c r="O16">
-        <v>0.1053895177178852</v>
-      </c>
-      <c r="P16">
-        <v>0.1053895177178852</v>
-      </c>
-      <c r="Q16">
-        <v>21.9055477996</v>
-      </c>
-      <c r="R16">
-        <v>197.1499301964</v>
-      </c>
-      <c r="S16">
-        <v>0.002802965893454052</v>
-      </c>
-      <c r="T16">
-        <v>0.002802965893454051</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.06598</v>
+      </c>
+      <c r="I19">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J19">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13.80191933333334</v>
+      </c>
+      <c r="N19">
+        <v>41.40575800000001</v>
+      </c>
+      <c r="O19">
+        <v>0.1585007882996995</v>
+      </c>
+      <c r="P19">
+        <v>0.1585007882996994</v>
+      </c>
+      <c r="Q19">
+        <v>0.3035502125377778</v>
+      </c>
+      <c r="R19">
+        <v>2.73195191284</v>
+      </c>
+      <c r="S19">
+        <v>3.187481473625998E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.187481473625998E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.06598</v>
+      </c>
+      <c r="I20">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J20">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.18796133333333</v>
+      </c>
+      <c r="N20">
+        <v>36.563884</v>
+      </c>
+      <c r="O20">
+        <v>0.1399661476381804</v>
+      </c>
+      <c r="P20">
+        <v>0.1399661476381803</v>
+      </c>
+      <c r="Q20">
+        <v>0.2680538962577778</v>
+      </c>
+      <c r="R20">
+        <v>2.41248506632</v>
+      </c>
+      <c r="S20">
+        <v>2.814746269197875E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.814746269197874E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.06598</v>
+      </c>
+      <c r="I21">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J21">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.576764333333333</v>
+      </c>
+      <c r="N21">
+        <v>25.730293</v>
+      </c>
+      <c r="O21">
+        <v>0.09849527990001386</v>
+      </c>
+      <c r="P21">
+        <v>0.09849527990001385</v>
+      </c>
+      <c r="Q21">
+        <v>0.1886316369044445</v>
+      </c>
+      <c r="R21">
+        <v>1.69768473214</v>
+      </c>
+      <c r="S21">
+        <v>1.980759107186703E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.980759107186703E-05</v>
       </c>
     </row>
   </sheetData>
